--- a/HaberleşmePaketi.xlsx
+++ b/HaberleşmePaketi.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\90545\Desktop\projeler\roket\roket-ekibi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F66F1A0-0487-44D7-8589-DD0D6238202E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="Paket Yapısı" sheetId="1" r:id="rId1"/>
+    <sheet name="Komut Yapısı" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +25,179 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="55">
+  <si>
+    <t>Başlık</t>
+  </si>
+  <si>
+    <t>Komut</t>
+  </si>
+  <si>
+    <t>Komut Veri Boyutu</t>
+  </si>
+  <si>
+    <t>CRC 1021</t>
+  </si>
+  <si>
+    <t>(0x55,0xFF)</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Verisi</t>
+  </si>
+  <si>
+    <t>2 byte</t>
+  </si>
+  <si>
+    <t>1 Byte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Byte </t>
+  </si>
+  <si>
+    <t>0-255 Byte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 Byte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komut Cevabı </t>
+  </si>
+  <si>
+    <t>Cevabı Durumu</t>
+  </si>
+  <si>
+    <t>(0x66,0xEE)</t>
+  </si>
+  <si>
+    <t>2 Byte</t>
+  </si>
+  <si>
+    <t>CmdID+1  (1 byte)</t>
+  </si>
+  <si>
+    <t>Komut Cevapları İçeriği</t>
+  </si>
+  <si>
+    <t>Cevap ID</t>
+  </si>
+  <si>
+    <t>0-254 Byte</t>
+  </si>
+  <si>
+    <t>Komut Başarılı</t>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>CRC Hatası</t>
+  </si>
+  <si>
+    <t>0x20</t>
+  </si>
+  <si>
+    <t>Komut Uygulanabilir Değil</t>
+  </si>
+  <si>
+    <t>0x30</t>
+  </si>
+  <si>
+    <t>Komut Parametresi Limit Dışında</t>
+  </si>
+  <si>
+    <t>0x40</t>
+  </si>
+  <si>
+    <t>Tanımsız Komut ID</t>
+  </si>
+  <si>
+    <t>0x50</t>
+  </si>
+  <si>
+    <t>Byte 0</t>
+  </si>
+  <si>
+    <t>Byte 1</t>
+  </si>
+  <si>
+    <t>Byte 2</t>
+  </si>
+  <si>
+    <t>Byte 3</t>
+  </si>
+  <si>
+    <t>Byte 4</t>
+  </si>
+  <si>
+    <t>Byte 5</t>
+  </si>
+  <si>
+    <t>Byte 6</t>
+  </si>
+  <si>
+    <t>Byte 7</t>
+  </si>
+  <si>
+    <t>Byte 8</t>
+  </si>
+  <si>
+    <t>Byte 9</t>
+  </si>
+  <si>
+    <t>Registers</t>
+  </si>
+  <si>
+    <t>R/W</t>
+  </si>
+  <si>
+    <t>Bit 7</t>
+  </si>
+  <si>
+    <t>Bit6</t>
+  </si>
+  <si>
+    <t>Bit 5</t>
+  </si>
+  <si>
+    <t>Bit 4</t>
+  </si>
+  <si>
+    <t>Bit 3</t>
+  </si>
+  <si>
+    <t>Bit 2</t>
+  </si>
+  <si>
+    <t>Bit 1</t>
+  </si>
+  <si>
+    <t>Bit 0</t>
+  </si>
+  <si>
+    <t>Bit 6</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>[0x10] Initialize</t>
+  </si>
+  <si>
+    <t>[0x11] Initialize Resp</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +205,95 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="1" tint="0.34900967436750391"/>
+        </stop>
+        <stop position="1">
+          <color theme="1" tint="0.49803155613879818"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp"/>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -45,17 +301,507 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="4" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="7" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="7" tint="0.59999389629810485"/>
+          </stop>
+          <stop position="1">
+            <color theme="7" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="9" tint="0.59999389629810485"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="5" tint="0.59999389629810485"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="4" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="7" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="7" tint="0.59999389629810485"/>
+          </stop>
+          <stop position="1">
+            <color theme="7" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="9" tint="0.59999389629810485"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="5" tint="0.59999389629810485"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="4" tint="-0.25098422193060094"/>
+          </stop>
+          <stop position="1">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="7" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="7" tint="0.59999389629810485"/>
+          </stop>
+          <stop position="1">
+            <color theme="7" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="9" tint="0.59999389629810485"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.59999389629810485"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="5" tint="0.59999389629810485"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -330,13 +1076,902 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="2:8" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="2:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="C13:C19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="G13:G19"/>
+    <mergeCell ref="H13:H19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E629A8-55D9-495D-A504-C8FD5729123B}">
+  <dimension ref="A4:CD28"/>
+  <sheetViews>
+    <sheetView zoomScale="45" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="52.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="C4" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR4" s="37"/>
+      <c r="AS4" s="37"/>
+      <c r="AT4" s="37"/>
+      <c r="AU4" s="37"/>
+      <c r="AV4" s="37"/>
+      <c r="AW4" s="37"/>
+      <c r="AX4" s="37"/>
+      <c r="AY4" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="36"/>
+      <c r="BC4" s="36"/>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
+      <c r="BF4" s="36"/>
+      <c r="BG4" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH4" s="37"/>
+      <c r="BI4" s="37"/>
+      <c r="BJ4" s="37"/>
+      <c r="BK4" s="37"/>
+      <c r="BL4" s="37"/>
+      <c r="BM4" s="37"/>
+      <c r="BN4" s="38"/>
+      <c r="BO4" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="BP4" s="36"/>
+      <c r="BQ4" s="36"/>
+      <c r="BR4" s="36"/>
+      <c r="BS4" s="36"/>
+      <c r="BT4" s="36"/>
+      <c r="BU4" s="36"/>
+      <c r="BV4" s="36"/>
+      <c r="BW4" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="BX4" s="37"/>
+      <c r="BY4" s="37"/>
+      <c r="BZ4" s="37"/>
+      <c r="CA4" s="37"/>
+      <c r="CB4" s="37"/>
+      <c r="CC4" s="37"/>
+      <c r="CD4" s="38"/>
+    </row>
+    <row r="5" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB5" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC5" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD5" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE5" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF5" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG5" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH5" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI5" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ5" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK5" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL5" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM5" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN5" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO5" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP5" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ5" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR5" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS5" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT5" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU5" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV5" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW5" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX5" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY5" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ5" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA5" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB5" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC5" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD5" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE5" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF5" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="BG5" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH5" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="BI5" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="BJ5" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK5" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="BL5" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="BM5" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="BN5" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="BO5" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP5" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ5" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="BR5" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="BS5" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT5" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="BU5" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="BV5" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="BW5" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="BX5" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="BY5" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="BZ5" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="CA5" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="CB5" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="CC5" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="CD5" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:82" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A6" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+    </row>
+    <row r="7" spans="1:82" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A7" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+    </row>
+    <row r="9" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="49"/>
+      <c r="AL9" s="49"/>
+      <c r="AM9" s="49"/>
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="49"/>
+      <c r="AP9" s="49"/>
+      <c r="AQ9" s="49"/>
+      <c r="AR9" s="49"/>
+      <c r="AS9" s="49"/>
+      <c r="AT9" s="49"/>
+      <c r="AU9" s="49"/>
+      <c r="AV9" s="49"/>
+      <c r="AW9" s="49"/>
+      <c r="AX9" s="49"/>
+      <c r="AY9" s="49"/>
+      <c r="AZ9" s="49"/>
+      <c r="BA9" s="49"/>
+      <c r="BB9" s="49"/>
+      <c r="BC9" s="49"/>
+      <c r="BD9" s="49"/>
+      <c r="BE9" s="49"/>
+      <c r="BF9" s="49"/>
+      <c r="BG9" s="49"/>
+      <c r="BH9" s="49"/>
+      <c r="BI9" s="49"/>
+      <c r="BJ9" s="49"/>
+      <c r="BK9" s="49"/>
+      <c r="BL9" s="49"/>
+      <c r="BM9" s="49"/>
+      <c r="BN9" s="49"/>
+    </row>
+    <row r="11" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+    </row>
+    <row r="13" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="49"/>
+    </row>
+    <row r="16" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+    </row>
+    <row r="18" spans="3:50" x14ac:dyDescent="0.3">
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="49"/>
+      <c r="AL18" s="49"/>
+      <c r="AM18" s="49"/>
+      <c r="AN18" s="49"/>
+      <c r="AO18" s="49"/>
+      <c r="AP18" s="49"/>
+      <c r="AQ18" s="49"/>
+      <c r="AR18" s="49"/>
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="49"/>
+      <c r="AU18" s="49"/>
+      <c r="AV18" s="49"/>
+      <c r="AW18" s="49"/>
+      <c r="AX18" s="49"/>
+    </row>
+    <row r="22" spans="3:50" x14ac:dyDescent="0.3">
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+    </row>
+    <row r="24" spans="3:50" x14ac:dyDescent="0.3">
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+    </row>
+    <row r="26" spans="3:50" x14ac:dyDescent="0.3">
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+    </row>
+    <row r="28" spans="3:50" x14ac:dyDescent="0.3">
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="AY4:BF4"/>
+    <mergeCell ref="BG4:BN4"/>
+    <mergeCell ref="BO4:BV4"/>
+    <mergeCell ref="BW4:CD4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="S4:Z4"/>
+    <mergeCell ref="AA4:AH4"/>
+    <mergeCell ref="AI4:AP4"/>
+    <mergeCell ref="AQ4:AX4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B1:B4 B6:B19">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"W"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Platform → PC">
+      <formula>NOT(ISERROR(SEARCH("Platform → PC",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="PC → Platform">
+      <formula>NOT(ISERROR(SEARCH("PC → Platform",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B25">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"W"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Platform → PC">
+      <formula>NOT(ISERROR(SEARCH("Platform → PC",B20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="PC → Platform">
+      <formula>NOT(ISERROR(SEARCH("PC → Platform",B20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:B29">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"W"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Platform → PC">
+      <formula>NOT(ISERROR(SEARCH("Platform → PC",B26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PC → Platform">
+      <formula>NOT(ISERROR(SEARCH("PC → Platform",B26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>